--- a/Assets/Shared/ExcelImporter/Excels/Goods/GoodsDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Goods/GoodsDataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Goods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Goods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12CD8D1-6970-4175-B5FE-D872EEEC233D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9345" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9345" yWindow="1605" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="GoodsExcelDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -271,13 +270,138 @@
   </si>
   <si>
     <t>Images/Main/Coin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomRune</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>andomRune</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -593,14 +717,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -714,22 +838,42 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>990</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">

--- a/Assets/Shared/ExcelImporter/Excels/Goods/GoodsDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Goods/GoodsDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Goods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Goods\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE63A6BC-97C7-4A4C-A641-64FA99097F7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9345" yWindow="1605" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="6840" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GoodsExcelDatas" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -394,6 +395,150 @@
         <family val="2"/>
       </rPr>
       <t>andomRune</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">랜덤 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포션</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -401,8 +546,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -473,6 +618,20 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -717,14 +876,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -763,116 +922,104 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>60</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>500</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4500</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1">
-        <v>100000</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="6" t="s">
-        <v>31</v>
+      <c r="B4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2">
-        <v>100</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1"/>
+      <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2">
-        <v>990</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1">
-        <v>10</v>
+      <c r="B6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -880,118 +1027,76 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1001</v>
+      <c r="B7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
       <c r="K7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2001</v>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3001</v>
+      <c r="B9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>4002</v>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3">
-        <v>50</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>5003</v>
-      </c>
     </row>
     <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -1007,117 +1112,311 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
+      <c r="H14" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="H15" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+      <c r="H16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>60</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2">
+        <v>500</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4500</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2">
+        <v>990</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1">
+        <v>30</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>40</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3">
+        <v>50</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D42" s="1">
         <v>1000</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D43" s="1">
         <v>200</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D44" s="1">
         <v>100</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D45" s="1">
         <v>1000</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F45" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+    <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D46" s="1">
         <v>2000</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F46" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Shared/ExcelImporter/Excels/Goods/GoodsDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Goods/GoodsDataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Goods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Goods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE63A6BC-97C7-4A4C-A641-64FA99097F7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="1920" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="GoodsExcelDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -35,9 +34,6 @@
   </si>
   <si>
     <t>RewardAmount</t>
-  </si>
-  <si>
-    <t>RewardId</t>
   </si>
   <si>
     <t>Diamond</t>
@@ -546,7 +542,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -876,14 +872,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -904,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -915,11 +911,8 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>29</v>
+      <c r="G1" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -927,16 +920,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -947,16 +940,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -967,16 +960,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -987,16 +980,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1007,37 +1000,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>50</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>60</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1050,16 +1043,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>70</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1070,16 +1063,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>80</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1090,7 +1083,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -1112,49 +1105,50 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>32</v>
+      <c r="G14" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="6" t="s">
+      <c r="G15" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="6" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H16" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2">
         <v>60</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" s="1">
         <v>1000</v>
       </c>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2">
         <v>500</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" s="1">
         <v>10000</v>
@@ -1163,16 +1157,16 @@
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2">
         <v>4500</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" s="1">
         <v>100000</v>
@@ -1181,137 +1175,136 @@
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" s="2">
         <v>100</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
-      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" s="2">
         <v>990</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" s="1">
         <v>10</v>
       </c>
+      <c r="G33">
+        <v>1001</v>
+      </c>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1">
         <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
       </c>
-      <c r="G34">
-        <v>1001</v>
+      <c r="G34" s="1">
+        <v>2001</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1">
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" s="2">
         <v>2</v>
       </c>
-      <c r="G35" s="1">
-        <v>2001</v>
+      <c r="G35">
+        <v>3001</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1">
         <v>30</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3001</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D37" s="3">
         <v>40</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4002</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="3">
         <v>50</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
-      </c>
-      <c r="G38">
-        <v>5003</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1337,16 +1330,16 @@
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" s="1">
         <v>1000</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
@@ -1354,16 +1347,16 @@
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" s="1">
         <v>200</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
@@ -1371,16 +1364,16 @@
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1">
         <v>100</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
@@ -1388,16 +1381,16 @@
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1">
         <v>1000</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F45" s="1">
         <v>10</v>
@@ -1405,16 +1398,16 @@
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" s="1">
         <v>2000</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>

--- a/Assets/Shared/ExcelImporter/Excels/Goods/GoodsDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Goods/GoodsDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Goods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Goods\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06661DC-11A3-4A89-BF20-4E43CA4BD11E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="1920" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="6840" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GoodsExcelDatas" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -30,9 +31,6 @@
     <t>PurchasePrice</t>
   </si>
   <si>
-    <t>RewardCurrencyType</t>
-  </si>
-  <si>
     <t>RewardAmount</t>
   </si>
   <si>
@@ -270,16 +268,179 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+    <t>RandomRune</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>andomRune</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>룬</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">랜덤 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포션</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -318,8 +479,142 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>회 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>F~B)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>F~B)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>회</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (A~SSS)</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -371,178 +666,28 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>회</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RandomRune</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>andomRune</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">F </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>룬</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">D </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>룬</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">C </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>룬</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">B </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>룬</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>룬</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">S </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>룬</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>룬</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>룬</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">랜덤 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포션</t>
-    </r>
+      <t xml:space="preserve">회 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(A~SSS)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardCurrency</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -872,14 +1017,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -900,19 +1045,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -920,16 +1065,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -940,16 +1085,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -960,16 +1105,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -980,16 +1125,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1000,16 +1145,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>50</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1021,16 +1166,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>60</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1043,16 +1188,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>70</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1063,16 +1208,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>80</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1083,54 +1228,116 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>990</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G15" s="6" t="s">
+      <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="6" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G16" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2">
         <v>60</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" s="1">
         <v>1000</v>
@@ -1139,16 +1346,16 @@
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2">
         <v>500</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" s="1">
         <v>10000</v>
@@ -1157,71 +1364,39 @@
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2">
         <v>4500</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" s="1">
         <v>100000</v>
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="2">
-        <v>100</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-    </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="2">
-        <v>990</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="1">
-        <v>10</v>
-      </c>
       <c r="G33">
         <v>1001</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" s="1">
         <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -1232,16 +1407,16 @@
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1">
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" s="2">
         <v>2</v>
@@ -1252,16 +1427,16 @@
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1">
         <v>30</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -1272,16 +1447,16 @@
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D37" s="3">
         <v>40</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
@@ -1292,16 +1467,16 @@
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" s="3">
         <v>50</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -1330,16 +1505,16 @@
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1">
         <v>1000</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
@@ -1347,16 +1522,16 @@
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" s="1">
         <v>200</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
@@ -1364,16 +1539,16 @@
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" s="1">
         <v>100</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
@@ -1381,16 +1556,16 @@
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" s="1">
         <v>1000</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F45" s="1">
         <v>10</v>
@@ -1398,16 +1573,16 @@
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" s="1">
         <v>2000</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>

--- a/Assets/Shared/ExcelImporter/Excels/Goods/GoodsDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Goods/GoodsDataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Goods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Goods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C3F03D-F856-4E6C-873A-08AC1B212DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="GoodsExcelDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -598,10 +597,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>아티팩트 뽑기 1회</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -901,13 +896,100 @@
   </si>
   <si>
     <t>Images/Goods/Heart4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아티팩트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>andomArtifactPiece</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Goods/RandomPotion</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1237,14 +1319,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1594,21 +1676,31 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1621,7 +1713,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1634,7 +1726,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1647,7 +1739,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1662,7 +1754,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1677,7 +1769,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1692,7 +1784,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1705,7 +1797,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1718,7 +1810,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>27</v>
@@ -1733,7 +1825,7 @@
         <v>100</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1741,7 +1833,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>27</v>
@@ -1756,7 +1848,7 @@
         <v>500</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1764,7 +1856,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>27</v>
@@ -1779,7 +1871,7 @@
         <v>1000</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1787,7 +1879,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>27</v>
@@ -1802,7 +1894,7 @@
         <v>10000</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1810,7 +1902,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1823,7 +1915,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1836,7 +1928,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1849,7 +1941,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1862,7 +1954,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>27</v>
@@ -1871,13 +1963,13 @@
         <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1885,7 +1977,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>27</v>
@@ -1894,13 +1986,13 @@
         <v>50</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" s="1">
         <v>5</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1908,7 +2000,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>27</v>
@@ -1917,13 +2009,13 @@
         <v>100</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F36" s="1">
         <v>10</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1931,7 +2023,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>27</v>
@@ -1940,13 +2032,13 @@
         <v>1000</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F37" s="1">
         <v>100</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Shared/ExcelImporter/Excels/Goods/GoodsDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Goods/GoodsDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Goods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Goods\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB206F4-F9F3-4AB1-8802-CC8F63245B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GoodsExcelDatas" sheetId="1" r:id="rId1"/>
@@ -982,14 +983,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Goods/RandomPotion</t>
+    <t>Images/Goods/RandomArtifactPiece</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1319,7 +1320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/Assets/Shared/ExcelImporter/Excels/Goods/GoodsDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Goods/GoodsDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Goods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB206F4-F9F3-4AB1-8802-CC8F63245B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91D58E1-F9A8-48B7-B9C6-BDB1D659ABE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GoodsExcelDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>Id</t>
   </si>
@@ -744,10 +744,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>보석 1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Images/Goods/Gold1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -768,10 +764,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>골드 더미</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Heart</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -780,10 +772,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Goods/Gold4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -861,29 +849,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 수레</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Images/Goods/Heart1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -893,10 +858,6 @@
   </si>
   <si>
     <t>Images/Goods/Heart3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Goods/Heart4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1324,10 +1285,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1678,7 +1639,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>27</v>
@@ -1687,13 +1648,13 @@
         <v>500</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1811,7 +1772,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>27</v>
@@ -1826,7 +1787,7 @@
         <v>100</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1834,7 +1795,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>27</v>
@@ -1849,7 +1810,7 @@
         <v>500</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1857,7 +1818,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>27</v>
@@ -1872,7 +1833,7 @@
         <v>1000</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1880,30 +1841,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1916,7 +1867,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1924,138 +1875,110 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="B33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1">
+        <v>50</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="1">
+        <v>100</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="1">
         <v>10</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
       <c r="G34" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="1">
-        <v>50</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="1">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="1">
-        <v>100</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="1">
-        <v>10</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="1">
-        <v>100</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>64</v>
-      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
@@ -2075,7 +1998,7 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="3"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2085,27 +2008,6 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
